--- a/Bot2/Data.xlsx
+++ b/Bot2/Data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mayour.Shekhar\My Desktop\Certification UseCase\Final\v3.0\Use Case -2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CC0B8EA-9D57-41AC-AE67-DDF80970A6C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57361701-F5F4-4054-86C7-DE63975314D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{3762AC8C-9AEE-4C8E-BE10-75C56481D4F8}"/>
+    <workbookView xWindow="1752" yWindow="972" windowWidth="16536" windowHeight="9420" xr2:uid="{3762AC8C-9AEE-4C8E-BE10-75C56481D4F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -85,11 +85,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -97,8 +97,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -144,7 +151,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -160,7 +167,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -462,16 +469,16 @@
       <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -629,6 +636,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Bot2/Data.xlsx
+++ b/Bot2/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57361701-F5F4-4054-86C7-DE63975314D2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2430EF10-CC71-4AE0-B43B-BCD66A6739F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1752" yWindow="972" windowWidth="16536" windowHeight="9420" xr2:uid="{3762AC8C-9AEE-4C8E-BE10-75C56481D4F8}"/>
   </bookViews>

--- a/Bot2/Data.xlsx
+++ b/Bot2/Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\_Code\pythonCode\BOT\bot2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2430EF10-CC71-4AE0-B43B-BCD66A6739F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1B7F20A-B98C-4EC2-BDC9-B31C9B5B7F6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1752" yWindow="972" windowWidth="16536" windowHeight="9420" xr2:uid="{3762AC8C-9AEE-4C8E-BE10-75C56481D4F8}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="16536" windowHeight="9420" xr2:uid="{3762AC8C-9AEE-4C8E-BE10-75C56481D4F8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
